--- a/SCRIPT/testinfra_fmn.xlsx
+++ b/SCRIPT/testinfra_fmn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="50"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" state="visible" r:id="rId2"/>
@@ -60,6 +60,9 @@
     <sheet name="fmnAgg" sheetId="50" state="visible" r:id="rId51"/>
     <sheet name="fmnAgg2" sheetId="51" state="visible" r:id="rId52"/>
     <sheet name="fmnAna" sheetId="52" state="visible" r:id="rId53"/>
+    <sheet name="fmnAna2" sheetId="53" state="visible" r:id="rId54"/>
+    <sheet name="fmnAna3" sheetId="54" state="visible" r:id="rId55"/>
+    <sheet name="Sheet55" sheetId="55" state="visible" r:id="rId56"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -73,7 +76,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0">
@@ -98,7 +101,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>WT</author>
   </authors>
   <commentList>
     <comment ref="B8" authorId="0">
@@ -175,8 +178,46 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>WT</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">check that E and MS appear at t=1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">prepro is the same as raw in this particular case</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="285">
   <si>
     <t xml:space="preserve">NB_RUN</t>
   </si>
@@ -628,7 +669,7 @@
     <t xml:space="preserve">common initializations for a segmentation run</t>
   </si>
   <si>
-    <t xml:space="preserve">SDT_MAIN.py,sphere_meshing_CGAL.py,mpacts_PiCS.py,mpacts_pics_enrich.py,mpacts_pics_select.py,extract_geom_data.py,extract_contactinfo.py,extract_indent_volume_2.py</t>
+    <t xml:space="preserve">SDT_MAIN.py,sphere_meshing_CGAL.py,mpacts_PiCS.py,mpacts_pics_enrich.py,mpacts_pics_select.py,extract_geom_data.py,extract_contactinfo.py,exam_last_slice.py</t>
   </si>
   <si>
     <t xml:space="preserve">./mpacts_input_generator/paths/output_folder</t>
@@ -682,34 +723,7 @@
     <t xml:space="preserve">./mpacts_PiCS/paths/output_folder</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;ROOT_OUTPUT&gt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;SUB_FOLDER&gt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">012_mpacts_PiCS/</t>
-    </r>
+    <t xml:space="preserve">&lt;ROOT_OUTPUT&gt;/&lt;SUB_FOLDER&gt;/012_mpacts_PiCS/</t>
   </si>
   <si>
     <t xml:space="preserve">./mpacts_PiCS/parms_pix/perc_pix_sel</t>
@@ -736,26 +750,7 @@
     <t xml:space="preserve">./mpacts_PiCS/parms_cell_model/FrictionT</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">./mpacts_PiCS/parms_cell_model/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ka</t>
-    </r>
+    <t xml:space="preserve">./mpacts_PiCS/parms_cell_model/ka</t>
   </si>
   <si>
     <t xml:space="preserve">./mpacts_PiCS/parms_cell_model/h_eff</t>
@@ -824,34 +819,7 @@
     <t xml:space="preserve">./mpacts_pics_enrich/paths/input_file_centroids</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;ROOT_OUTPUT&gt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;SUB_FOLDER&gt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">012_mpacts_PiCS/cell_centroids.csv</t>
-    </r>
+    <t xml:space="preserve">&lt;ROOT_OUTPUT&gt;/&lt;SUB_FOLDER&gt;/012_mpacts_PiCS/cell_centroids.csv</t>
   </si>
   <si>
     <t xml:space="preserve">./mpacts_pics_enrich/paths/output_folder</t>
@@ -912,6 +880,12 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;ROOT_OUTPUT&gt;/&lt;SUB_FOLDER&gt;/035_extract_indent_volume/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./exam_last_slice/paths/output_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ROOT_OUTPUT&gt;/&lt;SUB_FOLDER&gt;/031_exam_last_slice/</t>
   </si>
   <si>
     <t xml:space="preserve">fmn0101</t>
@@ -956,7 +930,7 @@
     <t xml:space="preserve">./RAM/RAW_IMG_DIM_TZYX</t>
   </si>
   <si>
-    <t xml:space="preserve">60;29;371;512</t>
+    <t xml:space="preserve">60;29;262;263</t>
   </si>
   <si>
     <t xml:space="preserve">./RAM/repID</t>
@@ -1001,7 +975,7 @@
     <t xml:space="preserve">9;10;11;12;13;14;15;16;17;18;19;20;21;22;23;24;25;26;27;28;29;30</t>
   </si>
   <si>
-    <t xml:space="preserve">$DATA_FOLDER/INPUT/fmn01/fmn01_lineage_v1_named.tsv</t>
+    <t xml:space="preserve">$DATA_FOLDER/INPUT/fmn01/fmn01_lineage_v2_named.tsv</t>
   </si>
   <si>
     <t xml:space="preserve">./spheresDT/flowcontrol/lnb_GT_stack</t>
@@ -1013,10 +987,10 @@
     <t xml:space="preserve">./spheresDT/flowcontrol/validation_start_time</t>
   </si>
   <si>
-    <t xml:space="preserve">./mpacts_input_generator/process_flow/nb_stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./mpacts_input_generator/process_flow/nb_stack_timelapse</t>
+    <t xml:space="preserve">./mpacts_input_generator/process_flow/nb_stack_mpacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./mpacts_input_generator/process_flow/nb_stack_raw</t>
   </si>
   <si>
     <t xml:space="preserve">membranes_annotated.tif</t>
@@ -1026,6 +1000,12 @@
   </si>
   <si>
     <t xml:space="preserve">$DATA_FOLDER/INPUT/fmn01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./mpacts_input_generator/process_flow/nb_stack_prepro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body+mpacts_input_generator+process_flow+nb_stack_raw</t>
   </si>
   <si>
     <t xml:space="preserve">fmn0109</t>
@@ -1256,7 +1236,27 @@
     <t xml:space="preserve">fmnAgg</t>
   </si>
   <si>
-    <t xml:space="preserve">fmn aggregation of segmentations (create 3D movie) &lt;deprecated&gt;</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">fmn aggregation of segmentations (create 3D movie) </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;deprecated&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">$DATA_FOLDER/OUTPUT/fmnAgg</t>
@@ -1316,25 +1316,31 @@
     <t xml:space="preserve">./agg_tc/l_regex_files</t>
   </si>
   <si>
-    <t xml:space="preserve">fmn[0-9]*/**/_LOG/testinfra*.xml;fmn[0-9]*/**/geom_info.csv;fmn[0-9]*/**/023_extract_contactinfo/contactinfo.csv;fmn[0-9]*/**/selected_embryo.vtp</t>
+    <t xml:space="preserve">fmn[0-9]*/**/_LOG/testinfra*.xml;fmn[0-9]*/**/geom_info.csv;fmn[0-9]*/**/023_extract_contactinfo/contactinfo.csv;fmn[0-9]*/**/d_parentid_cellname.csv;fmn[0-9]*/**/selected_embryo.vtp;fmn[0-9]*/**/ABpl.vtp;fmn[0-9]*/**/raw_img_selected_stack.tif;fmn[0-9]*/**/last_slice_info.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">./agg_tc/l_xml_keys_tc_data</t>
   </si>
   <si>
-    <t xml:space="preserve">./RAM/repID;./RAM/embID;./mpacts_input_generator/process_flow/nb_stack;./mpacts_input_generator/process_flow/nb_stack_timelapse;./microscopy/raw/res_t;./microscopy/raw/nb_stack_EMS_division;./microscopy/raw/z_orientation;./microscopy/raw/category</t>
+    <t xml:space="preserve">./RAM/repID;./RAM/embID;./mpacts_input_generator/process_flow/nb_stack_raw;./mpacts_input_generator/process_flow/nb_stack_raw;./mpacts_input_generator/process_flow/nb_stack_mpacts;./mpacts_input_generator/process_flow/nb_stack_analysis;./microscopy/raw/res_t;./microscopy/raw/nb_stack_EMS_division;./microscopy/raw/z_orientation;./microscopy/raw/category</t>
   </si>
   <si>
     <t xml:space="preserve">./agg_tc/l_ext_parms</t>
   </si>
   <si>
-    <t xml:space="preserve">repID;nb_stack_timelapse</t>
+    <t xml:space="preserve">repID;nb_stack_mpacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./agg_tc/paths/append_file1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DATA_FOLDER/INPUT/fmnAgg/agg_tc_020321_manually_updated.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">fmnAna</t>
   </si>
   <si>
-    <t xml:space="preserve">analyse the aggregated data (execution of consecutive R scripts)</t>
+    <t xml:space="preserve">analyse the aggregated data fmn mutants (all cells, no aggregation)</t>
   </si>
   <si>
     <t xml:space="preserve">$DATA_FOLDER/OUTPUT/fmnAna</t>
@@ -1353,6 +1359,54 @@
   </si>
   <si>
     <t xml:space="preserve">analyse_geom_data.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyse_geom_data.R;analyse_sphericity.R;analyse_contactarea.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./viz_7cell/paths/input_file_excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ROOT_OUTPUT&gt;/analyse_contactarea/R_7cell.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./viz_7cell/paths/output_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ROOT_OUTPUT&gt;/analyse_contactarea/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmnAna2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyse the fmndata together with the wildtype 7cell data.  Only cells and time selected that were also analysed in the WT data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DATA_FOLDER/OUTPUT/fmnAna2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body+agg_tc+paths+output_folder+file_agg_tc_appended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./analyse_agg_data/l_cell_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABal;ABar;ABpl;ABpr;E;MS;P2;C;P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./analyse_agg_data/l_time_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0;15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmnAna3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyse the fmndata together with the wildtype 7cell data, but no filters, the complete data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$DATA_FOLDER/OUTPUT/fmnAna3</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1473,14 +1527,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFCE181E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFCE181E"/>
       <name val="Calibri"/>
@@ -1488,7 +1534,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1515,44 +1561,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00AAAD"/>
-        <bgColor rgb="FF00B6BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBEE3D3"/>
         <bgColor rgb="FFC2E0AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF04E4D"/>
-        <bgColor rgb="FFEF413D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED1C24"/>
-        <bgColor rgb="FFCE181E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAA61A"/>
-        <bgColor rgb="FFF58220"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF89C765"/>
-        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -1563,14 +1573,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF58220"/>
+        <fgColor rgb="FFF9A870"/>
         <bgColor rgb="FFFAA61A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF87D1D1"/>
-        <bgColor rgb="FFA9D18E"/>
+        <fgColor rgb="FF00AAAD"/>
+        <bgColor rgb="FF00B6BD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1581,12 +1591,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9A870"/>
-        <bgColor rgb="FFFAA61A"/>
+        <fgColor rgb="FFFAA61A"/>
+        <bgColor rgb="FFF9A870"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1599,55 +1609,6 @@
       <right/>
       <top style="double"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="double"/>
-      <top style="double"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="double"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="double"/>
-      <top/>
-      <bottom style="double"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double"/>
-      <right style="double"/>
-      <top style="double"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double"/>
-      <right style="double"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double"/>
-      <right style="double"/>
-      <top/>
-      <bottom style="double"/>
       <diagonal/>
     </border>
   </borders>
@@ -1676,7 +1637,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1713,11 +1674,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1725,91 +1682,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1845,7 +1738,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFF9A870"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
@@ -1853,25 +1746,25 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B6BD"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFBEE3D3"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF87D1D1"/>
-      <rgbColor rgb="FFF04E4D"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF8CBAD"/>
+      <rgbColor rgb="FFF9A870"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFAA61A"/>
-      <rgbColor rgb="FFF58220"/>
+      <rgbColor rgb="FFF04E4D"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF89C765"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003D73"/>
       <rgbColor rgb="FF407927"/>
       <rgbColor rgb="FF003300"/>
@@ -1896,9 +1789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>489600</xdr:colOff>
+      <xdr:colOff>486000</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1908,7 +1801,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10023480" cy="9500040"/>
+          <a:ext cx="10019880" cy="9496440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1943,8 +1836,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2005,7 +1898,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2021,7 +1914,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2029,46 +1922,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2117,8 +2010,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2133,7 +2026,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2141,46 +2034,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>15</v>
       </c>
     </row>
@@ -2229,7 +2122,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2245,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2253,46 +2146,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2341,7 +2234,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2357,7 +2250,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2365,46 +2258,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2453,7 +2346,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2469,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2477,46 +2370,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2565,8 +2458,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2581,7 +2474,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2589,46 +2482,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>19</v>
       </c>
     </row>
@@ -2677,7 +2570,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2693,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2701,46 +2594,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2789,7 +2682,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2805,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2813,46 +2706,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>21</v>
       </c>
     </row>
@@ -2901,7 +2794,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2917,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2925,46 +2818,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3013,7 +2906,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3029,7 +2922,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3037,46 +2930,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>23</v>
       </c>
     </row>
@@ -3125,8 +3018,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P27" activeCellId="0" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3418,8 +3311,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3434,7 +3327,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3442,47 +3335,55 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3530,7 +3431,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3546,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3554,46 +3455,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3642,7 +3543,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3658,7 +3559,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3666,46 +3567,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3754,7 +3655,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3770,7 +3671,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3778,46 +3679,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3866,7 +3767,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3882,7 +3783,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3890,46 +3791,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>28</v>
       </c>
     </row>
@@ -3978,7 +3879,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3994,7 +3895,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4002,46 +3903,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>29</v>
       </c>
     </row>
@@ -4090,7 +3991,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4106,7 +4007,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4114,46 +4015,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4202,8 +4103,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4218,7 +4119,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4226,36 +4127,36 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>128</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
@@ -4263,15 +4164,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>90</v>
@@ -4279,42 +4180,42 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,7 +4223,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,20 +4231,20 @@
         <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>5</v>
@@ -4354,7 +4255,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4362,25 +4263,24 @@
         <v>44</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4427,8 +4327,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4443,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4451,39 +4351,39 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>202</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,15 +4391,15 @@
         <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>164</v>
+      <c r="A8" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,18 +4411,18 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="33" t="n">
+      <c r="A10" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="33" t="n">
+      <c r="A11" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4567,7 +4467,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4583,7 +4483,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4591,46 +4491,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4677,10 +4577,10 @@
     <tabColor rgb="FFBA131A"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4690,8 +4590,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -4699,15 +4599,15 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -4715,7 +4615,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -4724,512 +4624,446 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B8" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B13" s="0" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B14" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B16" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="0" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B18" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B20" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="15" t="n">
+      <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="15" t="n">
+      <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="15" t="n">
+      <c r="B23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="15" t="n">
+      <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="18" t="n">
+      <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="15" t="n">
+      <c r="B26" s="0" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="15" t="n">
+      <c r="B27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="20" t="n">
+      <c r="B28" s="0" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="22" t="n">
+      <c r="B29" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="15" t="n">
+      <c r="B30" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="15" t="n">
+      <c r="B31" s="0" t="n">
         <v>0.84</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="24" t="n">
+      <c r="B32" s="0" t="n">
         <v>0.001</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B33" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="22" t="n">
+      <c r="B34" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="15" t="n">
+      <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="15" t="n">
+      <c r="B36" s="0" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="24" t="n">
+      <c r="B37" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B38" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B39" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="15" t="n">
+      <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="15" t="n">
+      <c r="B41" s="0" t="n">
         <v>0.84</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="24" t="n">
+      <c r="B42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B44" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="28" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B45" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="28" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B46" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="28" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B47" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="28" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B48" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B49" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B50" s="0" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B55" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="29" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B56" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="29" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B57" s="0" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="29" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B58" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5249,8 +5083,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5265,7 +5099,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5273,46 +5107,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5361,7 +5195,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5377,7 +5211,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5385,46 +5219,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5473,7 +5307,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5489,7 +5323,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5497,46 +5331,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5585,8 +5419,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5601,7 +5435,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5609,46 +5443,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5697,7 +5531,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5713,7 +5547,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5721,46 +5555,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5809,7 +5643,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5825,7 +5659,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5833,46 +5667,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5921,8 +5755,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5937,7 +5771,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5945,46 +5779,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>13</v>
       </c>
     </row>
@@ -6033,7 +5867,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6049,7 +5883,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6057,46 +5891,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6145,7 +5979,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6161,7 +5995,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6169,46 +6003,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6257,7 +6091,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6273,7 +6107,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6281,46 +6115,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>16</v>
       </c>
     </row>
@@ -6369,8 +6203,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6385,7 +6219,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6393,36 +6227,36 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -6430,15 +6264,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>90</v>
@@ -6446,42 +6280,42 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,7 +6323,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6497,38 +6331,38 @@
         <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="33" t="n">
+      <c r="A18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="33" t="n">
+      <c r="A19" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -6537,25 +6371,26 @@
         <v>44</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="A22" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6589,6 +6424,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6600,7 +6436,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6616,7 +6452,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6624,46 +6460,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>17</v>
       </c>
     </row>
@@ -6712,7 +6548,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6728,7 +6564,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6736,46 +6572,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>18</v>
       </c>
     </row>
@@ -6824,7 +6660,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6840,7 +6676,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6848,46 +6684,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>19</v>
       </c>
     </row>
@@ -6936,7 +6772,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6952,7 +6788,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6960,46 +6796,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7048,7 +6884,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7064,7 +6900,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7072,46 +6908,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>21</v>
       </c>
     </row>
@@ -7160,7 +6996,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7176,7 +7012,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7184,46 +7020,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>22</v>
       </c>
     </row>
@@ -7272,7 +7108,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7288,7 +7124,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7296,46 +7132,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>23</v>
       </c>
     </row>
@@ -7384,7 +7220,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7400,7 +7236,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7408,46 +7244,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>24</v>
       </c>
     </row>
@@ -7496,7 +7332,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7512,7 +7348,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7520,46 +7356,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7608,7 +7444,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7624,7 +7460,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7632,46 +7468,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>208</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>26</v>
       </c>
     </row>
@@ -7720,8 +7556,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7736,7 +7572,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7744,39 +7580,39 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>158</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7784,39 +7620,39 @@
         <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>164</v>
+      <c r="A8" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="33" t="n">
+      <c r="A9" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="33" t="n">
+      <c r="A10" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="12" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>166</v>
+      <c r="B11" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7866,8 +7702,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7882,7 +7718,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7890,23 +7726,23 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7914,10 +7750,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7927,45 +7763,45 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7994,10 +7830,10 @@
     <tabColor rgb="FFF04E4D"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8007,49 +7843,48 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>246</v>
+      <c r="B2" s="0" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>231</v>
+      <c r="A3" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>232</v>
+      <c r="A4" s="0" t="s">
+        <v>236</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>251</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
@@ -8058,61 +7893,60 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>231</v>
+        <v>248</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>249</v>
+      <c r="A10" s="0" t="s">
+        <v>253</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>251</v>
+      <c r="A11" s="0" t="s">
+        <v>255</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>253</v>
+      <c r="A12" s="0" t="s">
+        <v>257</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8132,8 +7966,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8148,7 +7982,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8156,23 +7990,23 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8180,7 +8014,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8190,15 +8024,15 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>38</v>
@@ -8206,20 +8040,48 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8238,6 +8100,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFF04E4D"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFF04E4D"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="73.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -8246,7 +8388,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8262,7 +8404,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8270,46 +8412,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -8358,7 +8500,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8374,7 +8516,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8382,46 +8524,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -8470,7 +8612,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8486,7 +8628,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8494,46 +8636,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>12</v>
       </c>
     </row>
@@ -8582,7 +8724,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8598,7 +8740,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8606,46 +8748,46 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>168</v>
+      <c r="A3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="33" t="n">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="33" t="n">
+      <c r="A7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="n">
         <v>13</v>
       </c>
     </row>
